--- a/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
+++ b/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AA$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AB$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TRANGTHAITHUTIEN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICEID</t>
   </si>
 </sst>
 </file>
@@ -467,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,310 +775,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27" style="1" customWidth="1"/>
-    <col min="20" max="22" width="20.42578125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="27.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.5703125" style="1" customWidth="1"/>
-    <col min="28" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27" style="1" customWidth="1"/>
+    <col min="21" max="23" width="20.42578125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="27.5703125" style="1" customWidth="1"/>
+    <col min="29" max="31" width="15.5703125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5">
+    <row r="2" spans="1:28" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:27" ht="18.75" hidden="1">
-      <c r="C3" s="7"/>
-      <c r="E3" s="7"/>
+    <row r="3" spans="1:28" ht="18.75" hidden="1">
+      <c r="D3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75">
-      <c r="E4" s="32" t="s">
+    <row r="4" spans="1:28" ht="15.75">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="16"/>
     </row>
-    <row r="7" spans="1:27" s="13" customFormat="1" ht="28.5">
+    <row r="7" spans="1:28" s="13" customFormat="1" ht="28.5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="U7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="V7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="W7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AB7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="22" customFormat="1" ht="45">
+    <row r="8" spans="1:28" s="22" customFormat="1" ht="45">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="L8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="M8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="P8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="Q8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="R8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="S8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="T8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="U8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="V8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="W8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="X8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="Y8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AB8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:28" ht="24.75" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <f>SUM(K8:K8)</f>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f>SUM(L8:L8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <f>SUM(M8:M8)</f>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <f>SUM(N8:N8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
-      <c r="W9" s="2"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
     </row>
-    <row r="11" spans="1:27">
-      <c r="J11" s="9"/>
-      <c r="L11" s="9"/>
+    <row r="11" spans="1:28">
+      <c r="K11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="X11" s="27" t="s">
+      <c r="N11" s="9"/>
+      <c r="Y11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
+++ b/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AB$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AG$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -213,6 +213,36 @@
   </si>
   <si>
     <t>&amp;=[DATA1].SERVICEPRICEID</t>
+  </si>
+  <si>
+    <t>Giá BHYT</t>
+  </si>
+  <si>
+    <t>Giá nhân dân</t>
+  </si>
+  <si>
+    <t>Giá YC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICEMONEY_BHYT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICEMONEY_NHANDAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICEMONEY</t>
+  </si>
+  <si>
+    <t>Đối tượng BN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DOITUONGBENHNHAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MAUBENHPHAMID</t>
+  </si>
+  <si>
+    <t>Mã phiếu CĐ</t>
   </si>
 </sst>
 </file>
@@ -775,93 +805,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="27" style="1" customWidth="1"/>
-    <col min="21" max="23" width="20.42578125" style="14" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="27.5703125" style="1" customWidth="1"/>
-    <col min="29" max="31" width="15.5703125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="29.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27" style="1" customWidth="1"/>
+    <col min="26" max="28" width="20.42578125" style="14" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="27.5703125" style="1" customWidth="1"/>
+    <col min="34" max="36" width="15.5703125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:33">
       <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="25.5">
+    <row r="2" spans="1:33" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:28" ht="18.75" hidden="1">
-      <c r="D3" s="7"/>
-      <c r="F3" s="7"/>
+    <row r="3" spans="1:33" ht="18.75" hidden="1">
+      <c r="E3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75">
-      <c r="F4" s="33" t="s">
+    <row r="4" spans="1:33" ht="15.75">
+      <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="16"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="16"/>
     </row>
-    <row r="7" spans="1:28" s="13" customFormat="1" ht="28.5">
+    <row r="7" spans="1:33" s="13" customFormat="1" ht="28.5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -869,85 +912,100 @@
         <v>60</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="Q7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="Z7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="AA7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="AB7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="AC7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="22" customFormat="1" ht="45">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
@@ -955,143 +1013,166 @@
         <v>61</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="L8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="O8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="P8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="Q8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="U8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="V8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="W8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="X8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="Y8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="Z8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="AA8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="AB8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="AC8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="AD8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AE8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AF8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="20" t="s">
+      <c r="AG8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1">
+    <row r="9" spans="1:33" ht="24.75" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <f>SUM(L8:L8)</f>
-        <v>0</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <f>SUM(N8:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <f>SUM(P8:P8)</f>
+        <v>0</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
-    <row r="11" spans="1:28">
-      <c r="K11" s="9"/>
+    <row r="11" spans="1:33">
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="Y11" s="28" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="AD11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="24" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="22" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
+++ b/MedicalLink/Templates/BC_01_BenhNhanSuDungDichVu.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AG$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AJ$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>Mã phiếu CĐ</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GIOITINHNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BIRTHDAY</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DIACHI</t>
   </si>
 </sst>
 </file>
@@ -805,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -818,31 +836,34 @@
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" style="14" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="27" style="1" customWidth="1"/>
-    <col min="26" max="28" width="20.42578125" style="14" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.85546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="41.140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="1" customWidth="1"/>
+    <col min="20" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="29.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="27" style="1" customWidth="1"/>
+    <col min="29" max="31" width="20.42578125" style="14" customWidth="1"/>
     <col min="32" max="32" width="15.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="27.5703125" style="1" customWidth="1"/>
-    <col min="34" max="36" width="15.5703125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="1"/>
+    <col min="33" max="33" width="11.85546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="27.5703125" style="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:36">
       <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
@@ -857,8 +878,11 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="25.5">
+    <row r="2" spans="1:36" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -870,8 +894,11 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:33" ht="18.75" hidden="1">
+    <row r="3" spans="1:36" ht="18.75" hidden="1">
       <c r="E3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -880,14 +907,17 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="15"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:33" ht="15.75">
+    <row r="4" spans="1:36" ht="15.75">
       <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
@@ -896,15 +926,18 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="16"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="16"/>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" ht="28.5">
+    <row r="7" spans="1:36" s="13" customFormat="1" ht="28.5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -927,85 +960,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="W7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="AB7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="AC7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AD7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AE7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="60">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
@@ -1027,86 +1069,95 @@
       <c r="G8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="L8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="N8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="O8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="P8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="Q8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="R8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="S8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="T8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="U8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="W8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="X8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="Y8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="AB8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AD8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AF8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AG8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AH8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AI8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="20" t="s">
+      <c r="AJ8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="24.75" customHeight="1">
+    <row r="9" spans="1:36" ht="24.75" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
@@ -1117,58 +1168,61 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2">
-        <f>SUM(N8:N8)</f>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <f>SUM(Q8:Q8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
-        <f>SUM(P8:P8)</f>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <f>SUM(S8:S8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
     </row>
-    <row r="11" spans="1:33">
-      <c r="M11" s="9"/>
-      <c r="O11" s="9"/>
+    <row r="11" spans="1:36">
       <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="AD11" s="28" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="AG11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AG11:AJ11"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
